--- a/hw4.xlsx
+++ b/hw4.xlsx
@@ -3,8 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="ชีต1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="ชีต2" sheetId="2" r:id="rId5"/>
+    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -186,7 +186,18 @@
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFB7E1CD"/>
+          <bgColor rgb="FFB7E1CD"/>
+        </patternFill>
+      </fill>
+      <border/>
+    </dxf>
+  </dxfs>
 </styleSheet>
 </file>
 
@@ -676,6 +687,11 @@
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="F1">
+    <cfRule type="notContainsBlanks" dxfId="0" priority="1">
+      <formula>LEN(TRIM(F1))&gt;0</formula>
+    </cfRule>
+  </conditionalFormatting>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>